--- a/Data/MapData/MapData.xlsx
+++ b/Data/MapData/MapData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2416081\Desktop\project\Data\MapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5286ED8E-7942-448C-BBEF-33AE1808A896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3930D-7421-4BFF-A654-CD3B05E8185A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -419,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T19">
         <v>0</v>

--- a/Data/MapData/MapData.xlsx
+++ b/Data/MapData/MapData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2416081\Desktop\project\Data\MapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B3930D-7421-4BFF-A654-CD3B05E8185A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BBFE7C-B58D-46A6-A6D9-0614169A032A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -419,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -470,7 +470,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>

--- a/Data/MapData/MapData.xlsx
+++ b/Data/MapData/MapData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2416081\Desktop\project\Data\MapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BBFE7C-B58D-46A6-A6D9-0614169A032A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A832C00-D20C-4AAF-9DAF-CEBE43CBAB9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>

--- a/Data/MapData/MapData.xlsx
+++ b/Data/MapData/MapData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2416081\Desktop\project\Data\MapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A832C00-D20C-4AAF-9DAF-CEBE43CBAB9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F286992-03A0-45BF-B703-919C2E218A5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
